--- a/tests/test_files/excel/pilot_tweak.xlsx
+++ b/tests/test_files/excel/pilot_tweak.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/study_definitions_workbench/tests/test_files/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/github/study_definitions_workbench/tests/test_files/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE723C61-198A-B04F-A316-242964021D48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{791AF065-3CE4-C54C-92DD-175A8FF679B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8320" yWindow="500" windowWidth="41180" windowHeight="27240" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="20060" firstSheet="15" activeTab="22" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -3721,12 +3721,6 @@
   </si>
   <si>
     <t>Hachinski Ischemic Scale</t>
-  </si>
-  <si>
-    <t>Primary Objective</t>
-  </si>
-  <si>
-    <t>Secondary Objective</t>
   </si>
   <si>
     <t>1</t>
@@ -6846,6 +6840,12 @@
   <si>
     <t>New public title</t>
   </si>
+  <si>
+    <t>Trial Primary Objective</t>
+  </si>
+  <si>
+    <t>Trial Secondary Objective</t>
+  </si>
 </sst>
 </file>
 
@@ -7209,11 +7209,8 @@
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="2" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="2" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -7221,8 +7218,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="2" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -7594,7 +7594,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2E79CD3-D94C-A14B-9EDC-9C26AFA63552}">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -7634,7 +7634,7 @@
         <v>57</v>
       </c>
       <c r="B3" s="71" t="s">
-        <v>1549</v>
+        <v>1547</v>
       </c>
       <c r="E3" s="32"/>
       <c r="F3" s="32"/>
@@ -7683,8 +7683,8 @@
       <c r="A8" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="B8" s="76" t="s">
-        <v>1550</v>
+      <c r="B8" s="72" t="s">
+        <v>1548</v>
       </c>
       <c r="E8" s="32"/>
       <c r="F8" s="32"/>
@@ -7791,13 +7791,13 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
-        <v>1496</v>
+        <v>1494</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>1495</v>
+        <v>1493</v>
       </c>
       <c r="C16" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
       <c r="D16" t="s">
         <v>242</v>
@@ -7954,7 +7954,7 @@
         <v>786</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="34" x14ac:dyDescent="0.2">
@@ -8073,7 +8073,7 @@
         <v>813</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -8107,7 +8107,7 @@
         <v>792</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -8141,7 +8141,7 @@
         <v>794</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="153" x14ac:dyDescent="0.2">
@@ -8158,7 +8158,7 @@
         <v>795</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="153" x14ac:dyDescent="0.2">
@@ -8175,7 +8175,7 @@
         <v>796</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="136" x14ac:dyDescent="0.2">
@@ -8192,7 +8192,7 @@
         <v>797</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="85" x14ac:dyDescent="0.2">
@@ -8209,7 +8209,7 @@
         <v>814</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="85" x14ac:dyDescent="0.2">
@@ -8226,7 +8226,7 @@
         <v>798</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="102" x14ac:dyDescent="0.2">
@@ -8243,7 +8243,7 @@
         <v>799</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -8277,7 +8277,7 @@
         <v>801</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="51" x14ac:dyDescent="0.2">
@@ -8345,7 +8345,7 @@
         <v>806</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="68" x14ac:dyDescent="0.2">
@@ -8396,7 +8396,7 @@
         <v>809</v>
       </c>
       <c r="F32" s="13" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
     </row>
   </sheetData>
@@ -14001,7 +14001,7 @@
         <v>250</v>
       </c>
       <c r="H1" s="33" t="s">
-        <v>1494</v>
+        <v>1492</v>
       </c>
       <c r="I1" s="36" t="s">
         <v>251</v>
@@ -14010,18 +14010,18 @@
         <v>234</v>
       </c>
       <c r="K1" s="36" t="s">
-        <v>1508</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="32" t="s">
-        <v>1546</v>
+        <v>1544</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>1499</v>
+        <v>1497</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>
@@ -14042,10 +14042,10 @@
         <v>450</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>1495</v>
+        <v>1493</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>1509</v>
+        <v>1507</v>
       </c>
     </row>
   </sheetData>
@@ -14145,93 +14145,93 @@
     </row>
     <row r="2" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>1536</v>
+        <v>1534</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>1525</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>1525</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>1526</v>
+      </c>
+      <c r="E2" s="68" t="s">
+        <v>1517</v>
+      </c>
+      <c r="F2" s="68" t="s">
+        <v>1518</v>
+      </c>
+      <c r="G2" s="53" t="s">
+        <v>1519</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>1520</v>
+      </c>
+      <c r="I2" s="69" t="s">
+        <v>1521</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>1527</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>1527</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>1528</v>
-      </c>
-      <c r="E2" s="68" t="s">
-        <v>1519</v>
-      </c>
-      <c r="F2" s="68" t="s">
-        <v>1520</v>
-      </c>
-      <c r="G2" s="53" t="s">
-        <v>1521</v>
-      </c>
-      <c r="H2" s="3" t="s">
+      <c r="K2" s="5" t="s">
+        <v>1529</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>1531</v>
+      </c>
+      <c r="M2" s="3" t="s">
         <v>1522</v>
       </c>
-      <c r="I2" s="69" t="s">
+      <c r="N2" s="3" t="s">
+        <v>1531</v>
+      </c>
+      <c r="O2" s="3" t="s">
         <v>1523</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>1529</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>1531</v>
-      </c>
-      <c r="L2" s="3" t="s">
+      <c r="P2" s="5" t="s">
         <v>1533</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>1524</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>1533</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>1525</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>1535</v>
       </c>
       <c r="Q2" s="3" t="s">
         <v>492</v>
       </c>
       <c r="R2" s="69" t="s">
-        <v>1526</v>
+        <v>1524</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>1535</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="J3" s="3" t="s">
+        <v>1528</v>
+      </c>
+      <c r="K3" s="5" t="s">
         <v>1530</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="L3" s="3" t="s">
         <v>1532</v>
       </c>
-      <c r="L3" s="3" t="s">
-        <v>1534</v>
-      </c>
       <c r="M3" s="3" t="s">
-        <v>1524</v>
+        <v>1522</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>1534</v>
+        <v>1532</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>1525</v>
+        <v>1523</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>1535</v>
+        <v>1533</v>
       </c>
       <c r="Q3" s="3" t="s">
         <v>492</v>
       </c>
       <c r="R3" s="69" t="s">
-        <v>1526</v>
+        <v>1524</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>1535</v>
+        <v>1533</v>
       </c>
     </row>
   </sheetData>
@@ -14387,8 +14387,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9162AE3F-0A5D-824F-8BC1-E6A493EFAA49}">
   <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14455,7 +14455,7 @@
         <v>339</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>845</v>
+        <v>1549</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>42</v>
@@ -14500,7 +14500,7 @@
         <v>341</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>845</v>
+        <v>1549</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>54</v>
@@ -14563,7 +14563,7 @@
         <v>340</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>846</v>
+        <v>1550</v>
       </c>
       <c r="F7" s="11" t="s">
         <v>183</v>
@@ -14619,7 +14619,7 @@
         <v>521</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>846</v>
+        <v>1550</v>
       </c>
       <c r="F10" s="11" t="s">
         <v>815</v>
@@ -14644,7 +14644,7 @@
         <v>522</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>846</v>
+        <v>1550</v>
       </c>
       <c r="F11" s="11" t="s">
         <v>816</v>
@@ -14671,7 +14671,7 @@
         <v>523</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>846</v>
+        <v>1550</v>
       </c>
       <c r="F12" s="11" t="s">
         <v>817</v>
@@ -14872,7 +14872,7 @@
         <v>33</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>1510</v>
+        <v>1508</v>
       </c>
       <c r="E1" s="16" t="s">
         <v>47</v>
@@ -14890,39 +14890,39 @@
         <v>45</v>
       </c>
       <c r="J1" s="16" t="s">
-        <v>1511</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="85" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>1512</v>
+        <v>1510</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>328</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>1514</v>
+        <v>1512</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>1536</v>
+        <v>1534</v>
       </c>
       <c r="H2" s="11" t="s">
         <v>42</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
     </row>
   </sheetData>
@@ -15561,7 +15561,7 @@
         <v>328</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -15575,7 +15575,7 @@
         <v>328</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -15662,7 +15662,7 @@
         <v>233</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>1487</v>
+        <v>1485</v>
       </c>
       <c r="E1" s="16" t="s">
         <v>512</v>
@@ -15671,30 +15671,30 @@
         <v>455</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>1488</v>
+        <v>1486</v>
       </c>
       <c r="H1" s="16" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>1487</v>
+      </c>
+      <c r="B2" t="s">
         <v>1489</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>1490</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1488</v>
+      </c>
+      <c r="F2" t="s">
         <v>1491</v>
       </c>
-      <c r="C2" t="s">
-        <v>1492</v>
-      </c>
-      <c r="E2" t="s">
-        <v>1490</v>
-      </c>
-      <c r="F2" t="s">
-        <v>1493</v>
-      </c>
       <c r="G2" t="s">
-        <v>1537</v>
+        <v>1535</v>
       </c>
     </row>
   </sheetData>
@@ -15720,13 +15720,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>1496</v>
+        <v>1494</v>
       </c>
       <c r="B1" s="33" t="s">
         <v>218</v>
       </c>
       <c r="C1" s="33" t="s">
-        <v>1497</v>
+        <v>1495</v>
       </c>
       <c r="D1" s="33" t="s">
         <v>30</v>
@@ -15734,16 +15734,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="B2" t="s">
-        <v>1499</v>
+        <v>1497</v>
       </c>
       <c r="C2" t="s">
         <v>492</v>
       </c>
       <c r="D2" t="s">
-        <v>1498</v>
+        <v>1496</v>
       </c>
     </row>
   </sheetData>
@@ -15776,24 +15776,24 @@
         <v>215</v>
       </c>
       <c r="C1" s="61" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="D1" s="62" t="s">
         <v>217</v>
       </c>
       <c r="E1" s="61" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="F1" s="62" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="B2" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>492</v>
@@ -15805,15 +15805,15 @@
         <v>492</v>
       </c>
       <c r="F2" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="B3" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>253</v>
@@ -15825,12 +15825,12 @@
         <v>253</v>
       </c>
       <c r="F3" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="B4" t="s">
         <v>219</v>
@@ -15845,12 +15845,12 @@
         <v>253</v>
       </c>
       <c r="F4" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="B5" t="s">
         <v>578</v>
@@ -15865,15 +15865,15 @@
         <v>253</v>
       </c>
       <c r="F5" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="B6" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>253</v>
@@ -15885,15 +15885,15 @@
         <v>253</v>
       </c>
       <c r="F6" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="B7" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>253</v>
@@ -15905,12 +15905,12 @@
         <v>253</v>
       </c>
       <c r="F7" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="B8" t="s">
         <v>582</v>
@@ -15925,12 +15925,12 @@
         <v>253</v>
       </c>
       <c r="F8" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="B9" t="s">
         <v>585</v>
@@ -15945,12 +15945,12 @@
         <v>253</v>
       </c>
       <c r="F9" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="B10" t="s">
         <v>588</v>
@@ -15965,12 +15965,12 @@
         <v>253</v>
       </c>
       <c r="F10" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="B11" t="s">
         <v>591</v>
@@ -15985,12 +15985,12 @@
         <v>253</v>
       </c>
       <c r="F11" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="B12" t="s">
         <v>594</v>
@@ -16005,12 +16005,12 @@
         <v>253</v>
       </c>
       <c r="F12" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="B13" t="s">
         <v>596</v>
@@ -16025,12 +16025,12 @@
         <v>253</v>
       </c>
       <c r="F13" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="B14" t="s">
         <v>599</v>
@@ -16045,12 +16045,12 @@
         <v>253</v>
       </c>
       <c r="F14" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="B15" t="s">
         <v>601</v>
@@ -16065,12 +16065,12 @@
         <v>253</v>
       </c>
       <c r="F15" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="B16" t="s">
         <v>604</v>
@@ -16085,12 +16085,12 @@
         <v>253</v>
       </c>
       <c r="F16" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="B17" t="s">
         <v>606</v>
@@ -16105,12 +16105,12 @@
         <v>253</v>
       </c>
       <c r="F17" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="B18" t="s">
         <v>609</v>
@@ -16125,12 +16125,12 @@
         <v>253</v>
       </c>
       <c r="F18" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="B19" t="s">
         <v>612</v>
@@ -16145,12 +16145,12 @@
         <v>253</v>
       </c>
       <c r="F19" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="B20" t="s">
         <v>615</v>
@@ -16165,12 +16165,12 @@
         <v>253</v>
       </c>
       <c r="F20" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="B21" t="s">
         <v>618</v>
@@ -16185,12 +16185,12 @@
         <v>253</v>
       </c>
       <c r="F21" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="B22" t="s">
         <v>620</v>
@@ -16205,12 +16205,12 @@
         <v>253</v>
       </c>
       <c r="F22" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="B23" t="s">
         <v>623</v>
@@ -16225,12 +16225,12 @@
         <v>253</v>
       </c>
       <c r="F23" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="B24" t="s">
         <v>626</v>
@@ -16245,12 +16245,12 @@
         <v>253</v>
       </c>
       <c r="F24" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="B25" t="s">
         <v>629</v>
@@ -16265,12 +16265,12 @@
         <v>253</v>
       </c>
       <c r="F25" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="B26" t="s">
         <v>632</v>
@@ -16285,12 +16285,12 @@
         <v>253</v>
       </c>
       <c r="F26" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="B27" t="s">
         <v>634</v>
@@ -16305,12 +16305,12 @@
         <v>253</v>
       </c>
       <c r="F27" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="B28" t="s">
         <v>637</v>
@@ -16325,12 +16325,12 @@
         <v>253</v>
       </c>
       <c r="F28" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="B29" t="s">
         <v>639</v>
@@ -16345,12 +16345,12 @@
         <v>253</v>
       </c>
       <c r="F29" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="B30" t="s">
         <v>642</v>
@@ -16365,12 +16365,12 @@
         <v>253</v>
       </c>
       <c r="F30" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="B31" t="s">
         <v>645</v>
@@ -16385,12 +16385,12 @@
         <v>253</v>
       </c>
       <c r="F31" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="B32" t="s">
         <v>647</v>
@@ -16405,12 +16405,12 @@
         <v>253</v>
       </c>
       <c r="F32" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="B33" t="s">
         <v>650</v>
@@ -16425,12 +16425,12 @@
         <v>253</v>
       </c>
       <c r="F33" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="B34" t="s">
         <v>653</v>
@@ -16445,12 +16445,12 @@
         <v>253</v>
       </c>
       <c r="F34" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="B35" t="s">
         <v>656</v>
@@ -16465,12 +16465,12 @@
         <v>253</v>
       </c>
       <c r="F35" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="B36" t="s">
         <v>659</v>
@@ -16485,12 +16485,12 @@
         <v>253</v>
       </c>
       <c r="F36" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="B37" t="s">
         <v>661</v>
@@ -16505,12 +16505,12 @@
         <v>253</v>
       </c>
       <c r="F37" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="B38" t="s">
         <v>663</v>
@@ -16525,12 +16525,12 @@
         <v>253</v>
       </c>
       <c r="F38" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="B39" t="s">
         <v>666</v>
@@ -16545,12 +16545,12 @@
         <v>253</v>
       </c>
       <c r="F39" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="B40" t="s">
         <v>669</v>
@@ -16565,12 +16565,12 @@
         <v>253</v>
       </c>
       <c r="F40" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="B41" t="s">
         <v>672</v>
@@ -16585,12 +16585,12 @@
         <v>253</v>
       </c>
       <c r="F41" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="B42" t="s">
         <v>675</v>
@@ -16605,12 +16605,12 @@
         <v>253</v>
       </c>
       <c r="F42" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="B43" t="s">
         <v>677</v>
@@ -16625,12 +16625,12 @@
         <v>253</v>
       </c>
       <c r="F43" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="B44" t="s">
         <v>680</v>
@@ -16645,12 +16645,12 @@
         <v>253</v>
       </c>
       <c r="F44" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="B45" t="s">
         <v>683</v>
@@ -16665,12 +16665,12 @@
         <v>253</v>
       </c>
       <c r="F45" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="B46" t="s">
         <v>686</v>
@@ -16685,12 +16685,12 @@
         <v>253</v>
       </c>
       <c r="F46" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="B47" t="s">
         <v>689</v>
@@ -16705,12 +16705,12 @@
         <v>253</v>
       </c>
       <c r="F47" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="B48" t="s">
         <v>692</v>
@@ -16725,15 +16725,15 @@
         <v>253</v>
       </c>
       <c r="F48" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="B49" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>253</v>
@@ -16745,12 +16745,12 @@
         <v>253</v>
       </c>
       <c r="F49" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="B50" t="s">
         <v>696</v>
@@ -16765,12 +16765,12 @@
         <v>253</v>
       </c>
       <c r="F50" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="B51" t="s">
         <v>699</v>
@@ -16779,18 +16779,18 @@
         <v>253</v>
       </c>
       <c r="D51" s="45" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="E51" s="63" t="s">
         <v>253</v>
       </c>
       <c r="F51" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="B52" t="s">
         <v>701</v>
@@ -16805,12 +16805,12 @@
         <v>253</v>
       </c>
       <c r="F52" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="B53" t="s">
         <v>703</v>
@@ -16825,12 +16825,12 @@
         <v>253</v>
       </c>
       <c r="F53" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="B54" t="s">
         <v>706</v>
@@ -16845,12 +16845,12 @@
         <v>253</v>
       </c>
       <c r="F54" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="B55" t="s">
         <v>709</v>
@@ -16865,12 +16865,12 @@
         <v>253</v>
       </c>
       <c r="F55" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="B56" t="s">
         <v>712</v>
@@ -16885,12 +16885,12 @@
         <v>253</v>
       </c>
       <c r="F56" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="B57" t="s">
         <v>715</v>
@@ -16905,12 +16905,12 @@
         <v>253</v>
       </c>
       <c r="F57" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="B58" t="s">
         <v>718</v>
@@ -16925,12 +16925,12 @@
         <v>253</v>
       </c>
       <c r="F58" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="B59" t="s">
         <v>721</v>
@@ -16945,12 +16945,12 @@
         <v>253</v>
       </c>
       <c r="F59" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="B60" t="s">
         <v>724</v>
@@ -16965,12 +16965,12 @@
         <v>253</v>
       </c>
       <c r="F60" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="B61" t="s">
         <v>727</v>
@@ -16985,12 +16985,12 @@
         <v>253</v>
       </c>
       <c r="F61" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="B62" t="s">
         <v>730</v>
@@ -17005,32 +17005,32 @@
         <v>253</v>
       </c>
       <c r="F62" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="B63" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D63" s="45" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="E63" s="63" t="s">
         <v>253</v>
       </c>
       <c r="F63" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="B64" t="s">
         <v>733</v>
@@ -17045,12 +17045,12 @@
         <v>253</v>
       </c>
       <c r="F64" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="B65" t="s">
         <v>736</v>
@@ -17065,12 +17065,12 @@
         <v>253</v>
       </c>
       <c r="F65" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="B66" t="s">
         <v>739</v>
@@ -17085,15 +17085,15 @@
         <v>253</v>
       </c>
       <c r="F66" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="B67" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>253</v>
@@ -17105,12 +17105,12 @@
         <v>253</v>
       </c>
       <c r="F67" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="B68" t="s">
         <v>743</v>
@@ -17125,12 +17125,12 @@
         <v>253</v>
       </c>
       <c r="F68" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="B69" t="s">
         <v>746</v>
@@ -17145,12 +17145,12 @@
         <v>253</v>
       </c>
       <c r="F69" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="B70" t="s">
         <v>748</v>
@@ -17165,12 +17165,12 @@
         <v>253</v>
       </c>
       <c r="F70" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="B71" t="s">
         <v>750</v>
@@ -17185,12 +17185,12 @@
         <v>253</v>
       </c>
       <c r="F71" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="B72" t="s">
         <v>752</v>
@@ -17205,12 +17205,12 @@
         <v>253</v>
       </c>
       <c r="F72" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="B73" t="s">
         <v>754</v>
@@ -17225,12 +17225,12 @@
         <v>253</v>
       </c>
       <c r="F73" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="B74" t="s">
         <v>756</v>
@@ -17245,12 +17245,12 @@
         <v>253</v>
       </c>
       <c r="F74" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="B75" t="s">
         <v>758</v>
@@ -17265,12 +17265,12 @@
         <v>253</v>
       </c>
       <c r="F75" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="B76" t="s">
         <v>760</v>
@@ -17285,12 +17285,12 @@
         <v>253</v>
       </c>
       <c r="F76" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="B77" t="s">
         <v>762</v>
@@ -17305,7 +17305,7 @@
         <v>253</v>
       </c>
       <c r="F77" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
     </row>
   </sheetData>
@@ -17339,24 +17339,24 @@
         <v>215</v>
       </c>
       <c r="C1" s="61" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="D1" s="62" t="s">
         <v>217</v>
       </c>
       <c r="E1" s="61" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="F1" s="62" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="B2" s="64" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>492</v>
@@ -17368,21 +17368,21 @@
         <v>492</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="B3" s="46" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D3" s="45" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="E3" s="63" t="s">
         <v>253</v>
@@ -17391,16 +17391,16 @@
     </row>
     <row r="4" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="B4" s="45" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D4" s="45" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>253</v>
@@ -17408,16 +17408,16 @@
     </row>
     <row r="5" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="B5" s="45" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D5" s="45" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>253</v>
@@ -17426,67 +17426,67 @@
     </row>
     <row r="6" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="B6" s="45" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D6" s="45" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>253</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="B7" s="45" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D7" s="45" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>253</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="B8" s="45" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D8" s="45" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>253</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="B9" s="45" t="s">
         <v>219</v>
@@ -17495,7 +17495,7 @@
         <v>253</v>
       </c>
       <c r="D9" s="45" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>253</v>
@@ -17504,16 +17504,16 @@
     </row>
     <row r="10" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="B10" s="45" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D10" s="45" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>253</v>
@@ -17522,16 +17522,16 @@
     </row>
     <row r="11" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="B11" s="45" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D11" s="45" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>253</v>
@@ -17540,16 +17540,16 @@
     </row>
     <row r="12" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="B12" s="45" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D12" s="45" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>253</v>
@@ -17558,16 +17558,16 @@
     </row>
     <row r="13" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="B13" s="45" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D13" s="45" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>253</v>
@@ -17576,16 +17576,16 @@
     </row>
     <row r="14" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="B14" s="45" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D14" s="45" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>253</v>
@@ -17594,16 +17594,16 @@
     </row>
     <row r="15" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
       <c r="B15" s="45" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D15" s="45" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>253</v>
@@ -17612,36 +17612,36 @@
     </row>
     <row r="16" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
       <c r="B16" s="45" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D16" s="45" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>253</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="B17" s="45" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D17" s="45" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>253</v>
@@ -17650,36 +17650,36 @@
     </row>
     <row r="18" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
       <c r="B18" s="45" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D18" s="45" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>253</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="B19" s="45" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D19" s="45" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>253</v>
@@ -17688,16 +17688,16 @@
     </row>
     <row r="20" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="B20" s="45" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D20" s="45" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>253</v>
@@ -17706,36 +17706,36 @@
     </row>
     <row r="21" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="B21" s="45" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D21" s="45" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>253</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="B22" s="45" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D22" s="45" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>253</v>
@@ -17744,16 +17744,16 @@
     </row>
     <row r="23" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="B23" s="45" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D23" s="45" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>253</v>
@@ -17762,16 +17762,16 @@
     </row>
     <row r="24" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="B24" s="45" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D24" s="45" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>253</v>
@@ -17780,16 +17780,16 @@
     </row>
     <row r="25" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="B25" s="45" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D25" s="45" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>253</v>
@@ -17798,16 +17798,16 @@
     </row>
     <row r="26" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="B26" s="45" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D26" s="45" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>253</v>
@@ -17816,16 +17816,16 @@
     </row>
     <row r="27" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="B27" s="45" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D27" s="45" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>253</v>
@@ -17834,16 +17834,16 @@
     </row>
     <row r="28" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="B28" s="45" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D28" s="45" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>253</v>
@@ -17852,16 +17852,16 @@
     </row>
     <row r="29" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="B29" s="45" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D29" s="45" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>253</v>
@@ -17870,16 +17870,16 @@
     </row>
     <row r="30" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="B30" s="45" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D30" s="45" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>253</v>
@@ -17888,16 +17888,16 @@
     </row>
     <row r="31" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="B31" s="45" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D31" s="45" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>253</v>
@@ -17906,16 +17906,16 @@
     </row>
     <row r="32" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="B32" s="45" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D32" s="45" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>253</v>
@@ -17924,16 +17924,16 @@
     </row>
     <row r="33" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
       <c r="B33" s="45" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D33" s="45" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>253</v>
@@ -17942,16 +17942,16 @@
     </row>
     <row r="34" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
       <c r="B34" s="45" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D34" s="45" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>253</v>
@@ -17960,16 +17960,16 @@
     </row>
     <row r="35" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
       <c r="B35" s="45" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D35" s="45" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>253</v>
@@ -17978,10 +17978,10 @@
     </row>
     <row r="36" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
       <c r="B36" s="45" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>253</v>
@@ -17993,15 +17993,15 @@
         <v>253</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="B37" s="45" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>253</v>
@@ -18013,21 +18013,21 @@
         <v>253</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="B38" s="45" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D38" s="45" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>253</v>
@@ -18036,16 +18036,16 @@
     </row>
     <row r="39" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="B39" s="45" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D39" s="45" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>253</v>
@@ -18054,16 +18054,16 @@
     </row>
     <row r="40" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="B40" s="45" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D40" s="45" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>253</v>
@@ -18072,16 +18072,16 @@
     </row>
     <row r="41" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
       <c r="B41" s="45" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D41" s="45" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>253</v>
@@ -18090,16 +18090,16 @@
     </row>
     <row r="42" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="B42" s="45" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D42" s="45" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>253</v>
@@ -18108,16 +18108,16 @@
     </row>
     <row r="43" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="B43" s="45" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D43" s="45" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>253</v>
@@ -18126,16 +18126,16 @@
     </row>
     <row r="44" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="B44" s="45" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D44" s="45" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>253</v>
@@ -18144,16 +18144,16 @@
     </row>
     <row r="45" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="B45" s="45" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D45" s="45" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>253</v>
@@ -18162,16 +18162,16 @@
     </row>
     <row r="46" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="B46" s="45" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D46" s="45" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>253</v>
@@ -18180,16 +18180,16 @@
     </row>
     <row r="47" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="B47" s="45" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D47" s="45" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>253</v>
@@ -18198,16 +18198,16 @@
     </row>
     <row r="48" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="B48" s="45" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D48" s="45" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>253</v>
@@ -18216,16 +18216,16 @@
     </row>
     <row r="49" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="B49" s="45" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D49" s="45" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>253</v>
@@ -18234,16 +18234,16 @@
     </row>
     <row r="50" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
       <c r="B50" s="45" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D50" s="45" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>253</v>
@@ -18252,16 +18252,16 @@
     </row>
     <row r="51" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="B51" s="45" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D51" s="45" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>253</v>
@@ -18270,16 +18270,16 @@
     </row>
     <row r="52" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="B52" s="45" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D52" s="45" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>253</v>
@@ -18288,16 +18288,16 @@
     </row>
     <row r="53" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="B53" s="45" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D53" s="45" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>253</v>
@@ -18306,16 +18306,16 @@
     </row>
     <row r="54" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="B54" s="45" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D54" s="45" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>253</v>
@@ -18324,16 +18324,16 @@
     </row>
     <row r="55" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
       <c r="B55" s="45" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D55" s="45" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>253</v>
@@ -18342,16 +18342,16 @@
     </row>
     <row r="56" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
       <c r="B56" s="45" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D56" s="45" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>253</v>
@@ -18360,16 +18360,16 @@
     </row>
     <row r="57" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="B57" s="45" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D57" s="45" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>253</v>
@@ -18378,16 +18378,16 @@
     </row>
     <row r="58" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="B58" s="45" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D58" s="45" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>253</v>
@@ -18396,16 +18396,16 @@
     </row>
     <row r="59" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="B59" s="45" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D59" s="45" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>253</v>
@@ -18414,16 +18414,16 @@
     </row>
     <row r="60" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
       <c r="B60" s="45" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D60" s="45" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>253</v>
@@ -18432,16 +18432,16 @@
     </row>
     <row r="61" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
       <c r="B61" s="45" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D61" s="45" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>253</v>
@@ -18450,16 +18450,16 @@
     </row>
     <row r="62" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="B62" s="45" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D62" s="45" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>253</v>
@@ -18468,16 +18468,16 @@
     </row>
     <row r="63" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="B63" s="45" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D63" s="45" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>253</v>
@@ -18486,16 +18486,16 @@
     </row>
     <row r="64" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="B64" s="45" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D64" s="45" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>253</v>
@@ -18504,16 +18504,16 @@
     </row>
     <row r="65" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="B65" s="45" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D65" s="45" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>253</v>
@@ -18522,16 +18522,16 @@
     </row>
     <row r="66" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="B66" s="45" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D66" s="45" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>253</v>
@@ -18540,16 +18540,16 @@
     </row>
     <row r="67" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
       <c r="B67" s="45" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D67" s="45" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>253</v>
@@ -18558,10 +18558,10 @@
     </row>
     <row r="68" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
       <c r="B68" s="45" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>253</v>
@@ -18576,16 +18576,16 @@
     </row>
     <row r="69" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="B69" s="45" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D69" s="45" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>253</v>
@@ -18594,16 +18594,16 @@
     </row>
     <row r="70" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="B70" s="45" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D70" s="45" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>253</v>
@@ -18612,16 +18612,16 @@
     </row>
     <row r="71" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="B71" s="45" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D71" s="45" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>253</v>
@@ -18630,16 +18630,16 @@
     </row>
     <row r="72" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="B72" s="45" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D72" s="45" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>253</v>
@@ -18648,16 +18648,16 @@
     </row>
     <row r="73" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
       <c r="B73" s="45" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D73" s="45" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>253</v>
@@ -18666,16 +18666,16 @@
     </row>
     <row r="74" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="B74" s="45" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D74" s="45" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>253</v>
@@ -18684,16 +18684,16 @@
     </row>
     <row r="75" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="B75" s="45" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D75" s="45" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>253</v>
@@ -18702,16 +18702,16 @@
     </row>
     <row r="76" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
       <c r="B76" s="45" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D76" s="45" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>253</v>
@@ -18720,16 +18720,16 @@
     </row>
     <row r="77" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
       <c r="B77" s="45" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D77" s="45" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>253</v>
@@ -18738,16 +18738,16 @@
     </row>
     <row r="78" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="B78" s="45" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D78" s="45" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>253</v>
@@ -18756,16 +18756,16 @@
     </row>
     <row r="79" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
       <c r="B79" s="45" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D79" s="45" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>253</v>
@@ -18774,16 +18774,16 @@
     </row>
     <row r="80" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
       <c r="B80" s="45" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D80" s="45" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>253</v>
@@ -18792,16 +18792,16 @@
     </row>
     <row r="81" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
       <c r="B81" s="45" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D81" s="45" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>253</v>
@@ -18810,16 +18810,16 @@
     </row>
     <row r="82" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
       <c r="B82" s="45" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D82" s="45" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>253</v>
@@ -18828,16 +18828,16 @@
     </row>
     <row r="83" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
       <c r="B83" s="45" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D83" s="45" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>253</v>
@@ -18846,16 +18846,16 @@
     </row>
     <row r="84" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="B84" s="45" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D84" s="45" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>253</v>
@@ -18864,16 +18864,16 @@
     </row>
     <row r="85" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
       <c r="B85" s="45" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D85" s="45" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>253</v>
@@ -18882,16 +18882,16 @@
     </row>
     <row r="86" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
       <c r="B86" s="45" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D86" s="45" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>253</v>
@@ -18900,16 +18900,16 @@
     </row>
     <row r="87" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
       <c r="B87" s="45" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D87" s="45" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>253</v>
@@ -18918,16 +18918,16 @@
     </row>
     <row r="88" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
       <c r="B88" s="45" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D88" s="45" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>253</v>
@@ -18936,10 +18936,10 @@
     </row>
     <row r="89" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
       <c r="B89" s="45" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>253</v>
@@ -18954,16 +18954,16 @@
     </row>
     <row r="90" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
       <c r="B90" s="45" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D90" s="45" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>253</v>
@@ -18972,16 +18972,16 @@
     </row>
     <row r="91" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
       <c r="B91" s="45" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D91" s="45" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>253</v>
@@ -18990,16 +18990,16 @@
     </row>
     <row r="92" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
       <c r="B92" s="45" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D92" s="45" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>253</v>
@@ -19008,16 +19008,16 @@
     </row>
     <row r="93" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
       <c r="B93" s="45" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D93" s="45" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>253</v>
@@ -19026,16 +19026,16 @@
     </row>
     <row r="94" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="B94" s="45" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D94" s="45" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>253</v>
@@ -19044,16 +19044,16 @@
     </row>
     <row r="95" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
       <c r="B95" s="45" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D95" s="45" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>253</v>
@@ -19062,16 +19062,16 @@
     </row>
     <row r="96" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
       <c r="B96" s="45" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D96" s="45" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>253</v>
@@ -19080,16 +19080,16 @@
     </row>
     <row r="97" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="B97" s="45" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D97" s="45" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>253</v>
@@ -19098,16 +19098,16 @@
     </row>
     <row r="98" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
       <c r="B98" s="45" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D98" s="45" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>253</v>
@@ -19116,16 +19116,16 @@
     </row>
     <row r="99" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
       <c r="B99" s="45" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D99" s="45" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>253</v>
@@ -19134,16 +19134,16 @@
     </row>
     <row r="100" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
       <c r="B100" s="45" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D100" s="45" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>253</v>
@@ -19152,16 +19152,16 @@
     </row>
     <row r="101" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
       <c r="B101" s="45" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D101" s="45" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>253</v>
@@ -19170,16 +19170,16 @@
     </row>
     <row r="102" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="B102" s="45" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D102" s="45" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="E102" s="1" t="s">
         <v>253</v>
@@ -19188,16 +19188,16 @@
     </row>
     <row r="103" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
       <c r="B103" s="45" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D103" s="45" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>253</v>
@@ -19206,16 +19206,16 @@
     </row>
     <row r="104" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
       <c r="B104" s="45" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D104" s="45" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>253</v>
@@ -19224,16 +19224,16 @@
     </row>
     <row r="105" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="B105" s="45" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D105" s="45" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>253</v>
@@ -19242,16 +19242,16 @@
     </row>
     <row r="106" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
       <c r="B106" s="45" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D106" s="45" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>253</v>
@@ -19260,16 +19260,16 @@
     </row>
     <row r="107" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="B107" s="45" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D107" s="45" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>253</v>
@@ -19278,16 +19278,16 @@
     </row>
     <row r="108" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
       <c r="B108" s="45" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D108" s="45" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="E108" s="1" t="s">
         <v>253</v>
@@ -19296,16 +19296,16 @@
     </row>
     <row r="109" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
       <c r="B109" s="45" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D109" s="45" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>253</v>
@@ -19314,16 +19314,16 @@
     </row>
     <row r="110" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
       <c r="B110" s="45" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D110" s="45" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="E110" s="1" t="s">
         <v>253</v>
@@ -19332,16 +19332,16 @@
     </row>
     <row r="111" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
       <c r="B111" s="45" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D111" s="45" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="E111" s="1" t="s">
         <v>253</v>
@@ -19350,16 +19350,16 @@
     </row>
     <row r="112" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
       <c r="B112" s="45" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D112" s="45" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>253</v>
@@ -19368,16 +19368,16 @@
     </row>
     <row r="113" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
       <c r="B113" s="45" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D113" s="45" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="E113" s="1" t="s">
         <v>253</v>
@@ -19386,7 +19386,7 @@
     </row>
     <row r="114" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="B114" s="45" t="s">
         <v>220</v>
@@ -19395,7 +19395,7 @@
         <v>253</v>
       </c>
       <c r="D114" s="45" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="E114" s="1" t="s">
         <v>253</v>
@@ -19404,10 +19404,10 @@
     </row>
     <row r="115" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
       <c r="B115" s="45" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>253</v>
@@ -19422,16 +19422,16 @@
     </row>
     <row r="116" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
       <c r="B116" s="45" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D116" s="45" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="E116" s="1" t="s">
         <v>253</v>
@@ -19440,16 +19440,16 @@
     </row>
     <row r="117" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="B117" s="45" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D117" s="45" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="E117" s="1" t="s">
         <v>253</v>
@@ -19458,16 +19458,16 @@
     </row>
     <row r="118" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
       <c r="B118" s="45" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D118" s="45" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="E118" s="1" t="s">
         <v>253</v>
@@ -19476,16 +19476,16 @@
     </row>
     <row r="119" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="B119" s="45" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D119" s="45" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="E119" s="1" t="s">
         <v>253</v>
@@ -19494,16 +19494,16 @@
     </row>
     <row r="120" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
       <c r="B120" s="45" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D120" s="45" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="E120" s="1" t="s">
         <v>253</v>
@@ -19512,16 +19512,16 @@
     </row>
     <row r="121" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>1448</v>
+        <v>1446</v>
       </c>
       <c r="B121" s="45" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D121" s="45" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="E121" s="1" t="s">
         <v>253</v>
@@ -19530,16 +19530,16 @@
     </row>
     <row r="122" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>1449</v>
+        <v>1447</v>
       </c>
       <c r="B122" s="45" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D122" s="45" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="E122" s="1" t="s">
         <v>253</v>
@@ -19548,16 +19548,16 @@
     </row>
     <row r="123" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="B123" s="45" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D123" s="45" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="E123" s="1" t="s">
         <v>253</v>
@@ -19566,16 +19566,16 @@
     </row>
     <row r="124" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="B124" s="45" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D124" s="45" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="E124" s="1" t="s">
         <v>253</v>
@@ -19584,16 +19584,16 @@
     </row>
     <row r="125" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="B125" s="45" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D125" s="45" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="E125" s="1" t="s">
         <v>253</v>
@@ -19602,16 +19602,16 @@
     </row>
     <row r="126" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="B126" s="45" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D126" s="45" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="E126" s="1" t="s">
         <v>253</v>
@@ -19620,16 +19620,16 @@
     </row>
     <row r="127" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
       <c r="B127" s="45" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D127" s="45" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="E127" s="1" t="s">
         <v>253</v>
@@ -19638,16 +19638,16 @@
     </row>
     <row r="128" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="B128" s="45" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D128" s="45" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="E128" s="1" t="s">
         <v>253</v>
@@ -19656,16 +19656,16 @@
     </row>
     <row r="129" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="B129" s="45" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D129" s="45" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="E129" s="1" t="s">
         <v>253</v>
@@ -19674,16 +19674,16 @@
     </row>
     <row r="130" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="B130" s="45" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D130" s="45" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="E130" s="1" t="s">
         <v>253</v>
@@ -19692,10 +19692,10 @@
     </row>
     <row r="131" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="B131" s="45" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>253</v>
@@ -19710,16 +19710,16 @@
     </row>
     <row r="132" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>1459</v>
+        <v>1457</v>
       </c>
       <c r="B132" s="45" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D132" s="45" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="E132" s="1" t="s">
         <v>253</v>
@@ -19728,16 +19728,16 @@
     </row>
     <row r="133" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="B133" s="45" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D133" s="45" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="E133" s="1" t="s">
         <v>253</v>
@@ -19746,16 +19746,16 @@
     </row>
     <row r="134" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
       <c r="B134" s="45" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D134" s="45" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="E134" s="1" t="s">
         <v>253</v>
@@ -19764,16 +19764,16 @@
     </row>
     <row r="135" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
       <c r="B135" s="45" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D135" s="45" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="E135" s="1" t="s">
         <v>253</v>
@@ -19782,7 +19782,7 @@
     </row>
     <row r="136" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="B136" s="45" t="s">
         <v>221</v>
@@ -19791,7 +19791,7 @@
         <v>253</v>
       </c>
       <c r="D136" s="45" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="E136" s="1" t="s">
         <v>253</v>
@@ -19800,16 +19800,16 @@
     </row>
     <row r="137" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="B137" s="45" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D137" s="45" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="E137" s="1" t="s">
         <v>253</v>
@@ -19818,16 +19818,16 @@
     </row>
     <row r="138" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
       <c r="B138" s="45" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D138" s="45" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="E138" s="1" t="s">
         <v>253</v>
@@ -19836,16 +19836,16 @@
     </row>
     <row r="139" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
       <c r="B139" s="45" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D139" s="45" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="E139" s="1" t="s">
         <v>253</v>
@@ -19854,16 +19854,16 @@
     </row>
     <row r="140" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>1467</v>
+        <v>1465</v>
       </c>
       <c r="B140" s="45" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D140" s="45" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="E140" s="1" t="s">
         <v>253</v>
@@ -19872,16 +19872,16 @@
     </row>
     <row r="141" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>1468</v>
+        <v>1466</v>
       </c>
       <c r="B141" s="45" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D141" s="45" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="E141" s="1" t="s">
         <v>253</v>
@@ -19890,16 +19890,16 @@
     </row>
     <row r="142" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>1469</v>
+        <v>1467</v>
       </c>
       <c r="B142" s="45" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D142" s="45" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="E142" s="1" t="s">
         <v>253</v>
@@ -19908,16 +19908,16 @@
     </row>
     <row r="143" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
       <c r="B143" s="45" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D143" s="45" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="E143" s="1" t="s">
         <v>253</v>
@@ -19926,16 +19926,16 @@
     </row>
     <row r="144" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>1471</v>
+        <v>1469</v>
       </c>
       <c r="B144" s="45" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D144" s="45" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="E144" s="1" t="s">
         <v>253</v>
@@ -19944,16 +19944,16 @@
     </row>
     <row r="145" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>1472</v>
+        <v>1470</v>
       </c>
       <c r="B145" s="45" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D145" s="45" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="E145" s="1" t="s">
         <v>253</v>
@@ -19962,16 +19962,16 @@
     </row>
     <row r="146" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>1473</v>
+        <v>1471</v>
       </c>
       <c r="B146" s="45" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D146" s="45" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="E146" s="1" t="s">
         <v>253</v>
@@ -19980,16 +19980,16 @@
     </row>
     <row r="147" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>1474</v>
+        <v>1472</v>
       </c>
       <c r="B147" s="45" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D147" s="45" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="E147" s="1" t="s">
         <v>253</v>
@@ -19998,16 +19998,16 @@
     </row>
     <row r="148" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
       <c r="B148" s="45" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D148" s="45" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="E148" s="1" t="s">
         <v>253</v>
@@ -20016,16 +20016,16 @@
     </row>
     <row r="149" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="B149" s="45" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D149" s="45" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="E149" s="1" t="s">
         <v>253</v>
@@ -20034,16 +20034,16 @@
     </row>
     <row r="150" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="B150" s="45" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D150" s="45" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="E150" s="1" t="s">
         <v>253</v>
@@ -20052,7 +20052,7 @@
     </row>
     <row r="151" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>1478</v>
+        <v>1476</v>
       </c>
       <c r="B151" s="45" t="s">
         <v>222</v>
@@ -20061,7 +20061,7 @@
         <v>253</v>
       </c>
       <c r="D151" s="45" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="E151" s="1" t="s">
         <v>253</v>
@@ -20070,10 +20070,10 @@
     </row>
     <row r="152" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
       <c r="B152" s="45" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>253</v>
@@ -20088,16 +20088,16 @@
     </row>
     <row r="153" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
       <c r="B153" s="45" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D153" s="45" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="E153" s="1" t="s">
         <v>253</v>
@@ -20106,16 +20106,16 @@
     </row>
     <row r="154" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
       <c r="B154" s="45" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D154" s="45" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="E154" s="1" t="s">
         <v>253</v>
@@ -20124,7 +20124,7 @@
     </row>
     <row r="155" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
       <c r="B155" s="45" t="s">
         <v>223</v>
@@ -20133,7 +20133,7 @@
         <v>253</v>
       </c>
       <c r="D155" s="45" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="E155" s="1" t="s">
         <v>253</v>
@@ -20142,7 +20142,7 @@
     </row>
     <row r="156" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
       <c r="B156" s="45" t="s">
         <v>224</v>
@@ -20151,7 +20151,7 @@
         <v>253</v>
       </c>
       <c r="D156" s="45" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="E156" s="1" t="s">
         <v>253</v>
@@ -20188,7 +20188,7 @@
     </row>
     <row r="2" spans="1:2" ht="388" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="B2" s="45" t="s">
         <v>822</v>
@@ -20196,7 +20196,7 @@
     </row>
     <row r="3" spans="1:2" ht="323" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="B3" s="45" t="s">
         <v>821</v>
@@ -20204,13 +20204,13 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="B4" s="13"/>
     </row>
     <row r="5" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="B5" s="45" t="s">
         <v>819</v>
@@ -20218,7 +20218,7 @@
     </row>
     <row r="6" spans="1:2" ht="119" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="B6" s="45" t="s">
         <v>820</v>
@@ -20226,13 +20226,13 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="B7" s="13"/>
     </row>
     <row r="8" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="B8" s="45" t="s">
         <v>584</v>
@@ -20240,7 +20240,7 @@
     </row>
     <row r="9" spans="1:2" ht="289" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="B9" s="45" t="s">
         <v>587</v>
@@ -20248,7 +20248,7 @@
     </row>
     <row r="10" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="B10" s="45" t="s">
         <v>590</v>
@@ -20256,7 +20256,7 @@
     </row>
     <row r="11" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="B11" s="45" t="s">
         <v>593</v>
@@ -20264,13 +20264,13 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="B12" s="13"/>
     </row>
     <row r="13" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="B13" s="45" t="s">
         <v>598</v>
@@ -20278,7 +20278,7 @@
     </row>
     <row r="14" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="B14" s="45" t="s">
         <v>823</v>
@@ -20286,7 +20286,7 @@
     </row>
     <row r="15" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="B15" s="45" t="s">
         <v>603</v>
@@ -20294,7 +20294,7 @@
     </row>
     <row r="16" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="B16" s="45" t="s">
         <v>764</v>
@@ -20302,7 +20302,7 @@
     </row>
     <row r="17" spans="1:2" ht="102" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="B17" s="45" t="s">
         <v>608</v>
@@ -20310,7 +20310,7 @@
     </row>
     <row r="18" spans="1:2" ht="238" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="B18" s="45" t="s">
         <v>611</v>
@@ -20318,7 +20318,7 @@
     </row>
     <row r="19" spans="1:2" ht="102" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="B19" s="45" t="s">
         <v>614</v>
@@ -20326,7 +20326,7 @@
     </row>
     <row r="20" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="B20" s="45" t="s">
         <v>617</v>
@@ -20334,13 +20334,13 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="B21" s="13"/>
     </row>
     <row r="22" spans="1:2" ht="306" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="B22" s="45" t="s">
         <v>622</v>
@@ -20348,7 +20348,7 @@
     </row>
     <row r="23" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="B23" s="45" t="s">
         <v>625</v>
@@ -20356,7 +20356,7 @@
     </row>
     <row r="24" spans="1:2" ht="187" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="B24" s="45" t="s">
         <v>628</v>
@@ -20364,7 +20364,7 @@
     </row>
     <row r="25" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="B25" s="45" t="s">
         <v>631</v>
@@ -20372,13 +20372,13 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="B26" s="13"/>
     </row>
     <row r="27" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="B27" s="45" t="s">
         <v>636</v>
@@ -20386,7 +20386,7 @@
     </row>
     <row r="28" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A28" s="11" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="B28" s="45" t="s">
         <v>840</v>
@@ -20394,7 +20394,7 @@
     </row>
     <row r="29" spans="1:2" ht="170" x14ac:dyDescent="0.2">
       <c r="A29" s="11" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="B29" s="45" t="s">
         <v>641</v>
@@ -20402,7 +20402,7 @@
     </row>
     <row r="30" spans="1:2" ht="372" x14ac:dyDescent="0.2">
       <c r="A30" s="11" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="B30" s="45" t="s">
         <v>644</v>
@@ -20410,7 +20410,7 @@
     </row>
     <row r="31" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A31" s="11" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="B31" s="45" t="s">
         <v>646</v>
@@ -20418,7 +20418,7 @@
     </row>
     <row r="32" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A32" s="11" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="B32" s="45" t="s">
         <v>649</v>
@@ -20426,7 +20426,7 @@
     </row>
     <row r="33" spans="1:2" ht="221" x14ac:dyDescent="0.2">
       <c r="A33" s="11" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="B33" s="45" t="s">
         <v>652</v>
@@ -20434,7 +20434,7 @@
     </row>
     <row r="34" spans="1:2" ht="323" x14ac:dyDescent="0.2">
       <c r="A34" s="11" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="B34" s="45" t="s">
         <v>655</v>
@@ -20442,7 +20442,7 @@
     </row>
     <row r="35" spans="1:2" ht="323" x14ac:dyDescent="0.2">
       <c r="A35" s="11" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="B35" s="45" t="s">
         <v>658</v>
@@ -20450,7 +20450,7 @@
     </row>
     <row r="36" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A36" s="11" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="B36" s="47" t="s">
         <v>824</v>
@@ -20458,7 +20458,7 @@
     </row>
     <row r="37" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A37" s="11" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="B37" s="45" t="s">
         <v>825</v>
@@ -20466,7 +20466,7 @@
     </row>
     <row r="38" spans="1:2" ht="170" x14ac:dyDescent="0.2">
       <c r="A38" s="11" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="B38" s="45" t="s">
         <v>665</v>
@@ -20474,7 +20474,7 @@
     </row>
     <row r="39" spans="1:2" ht="356" x14ac:dyDescent="0.2">
       <c r="A39" s="11" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="B39" s="45" t="s">
         <v>668</v>
@@ -20482,7 +20482,7 @@
     </row>
     <row r="40" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A40" s="11" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="B40" s="45" t="s">
         <v>671</v>
@@ -20490,7 +20490,7 @@
     </row>
     <row r="41" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A41" s="11" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="B41" s="45" t="s">
         <v>674</v>
@@ -20498,13 +20498,13 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="11" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="B42" s="13"/>
     </row>
     <row r="43" spans="1:2" ht="340" x14ac:dyDescent="0.2">
       <c r="A43" s="11" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="B43" s="45" t="s">
         <v>679</v>
@@ -20512,7 +20512,7 @@
     </row>
     <row r="44" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A44" s="11" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="B44" s="45" t="s">
         <v>682</v>
@@ -20520,7 +20520,7 @@
     </row>
     <row r="45" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A45" s="11" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="B45" s="45" t="s">
         <v>685</v>
@@ -20528,7 +20528,7 @@
     </row>
     <row r="46" spans="1:2" ht="102" x14ac:dyDescent="0.2">
       <c r="A46" s="11" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="B46" s="45" t="s">
         <v>688</v>
@@ -20536,7 +20536,7 @@
     </row>
     <row r="47" spans="1:2" ht="340" x14ac:dyDescent="0.2">
       <c r="A47" s="11" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="B47" s="45" t="s">
         <v>691</v>
@@ -20544,7 +20544,7 @@
     </row>
     <row r="48" spans="1:2" ht="404" x14ac:dyDescent="0.2">
       <c r="A48" s="11" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="B48" s="45" t="s">
         <v>694</v>
@@ -20552,13 +20552,13 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="11" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="B49" s="13"/>
     </row>
     <row r="50" spans="1:2" ht="204" x14ac:dyDescent="0.2">
       <c r="A50" s="11" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="B50" s="45" t="s">
         <v>698</v>
@@ -20566,7 +20566,7 @@
     </row>
     <row r="51" spans="1:2" ht="153" x14ac:dyDescent="0.2">
       <c r="A51" s="11" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="B51" s="45" t="s">
         <v>700</v>
@@ -20574,13 +20574,13 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="11" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="B52" s="13"/>
     </row>
     <row r="53" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A53" s="11" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="B53" s="45" t="s">
         <v>705</v>
@@ -20588,7 +20588,7 @@
     </row>
     <row r="54" spans="1:2" ht="404" x14ac:dyDescent="0.2">
       <c r="A54" s="11" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="B54" s="45" t="s">
         <v>708</v>
@@ -20596,7 +20596,7 @@
     </row>
     <row r="55" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A55" s="11" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="B55" s="45" t="s">
         <v>711</v>
@@ -20604,7 +20604,7 @@
     </row>
     <row r="56" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A56" s="11" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="B56" s="45" t="s">
         <v>714</v>
@@ -20612,7 +20612,7 @@
     </row>
     <row r="57" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A57" s="11" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="B57" s="45" t="s">
         <v>717</v>
@@ -20620,7 +20620,7 @@
     </row>
     <row r="58" spans="1:2" ht="404" x14ac:dyDescent="0.2">
       <c r="A58" s="11" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="B58" s="45" t="s">
         <v>720</v>
@@ -20628,7 +20628,7 @@
     </row>
     <row r="59" spans="1:2" ht="136" x14ac:dyDescent="0.2">
       <c r="A59" s="11" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="B59" s="45" t="s">
         <v>723</v>
@@ -20636,7 +20636,7 @@
     </row>
     <row r="60" spans="1:2" ht="323" x14ac:dyDescent="0.2">
       <c r="A60" s="11" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="B60" s="45" t="s">
         <v>726</v>
@@ -20644,7 +20644,7 @@
     </row>
     <row r="61" spans="1:2" ht="170" x14ac:dyDescent="0.2">
       <c r="A61" s="11" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="B61" s="45" t="s">
         <v>729</v>
@@ -20652,7 +20652,7 @@
     </row>
     <row r="62" spans="1:2" ht="170" x14ac:dyDescent="0.2">
       <c r="A62" s="11" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="B62" s="45" t="s">
         <v>732</v>
@@ -20660,13 +20660,13 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="11" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="B63" s="13"/>
     </row>
     <row r="64" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A64" s="11" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="B64" s="45" t="s">
         <v>735</v>
@@ -20674,7 +20674,7 @@
     </row>
     <row r="65" spans="1:2" ht="170" x14ac:dyDescent="0.2">
       <c r="A65" s="11" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="B65" s="45" t="s">
         <v>738</v>
@@ -20682,7 +20682,7 @@
     </row>
     <row r="66" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A66" s="11" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="B66" s="45" t="s">
         <v>741</v>
@@ -20690,7 +20690,7 @@
     </row>
     <row r="67" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A67" s="11" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="B67" s="45" t="s">
         <v>765</v>
@@ -20698,7 +20698,7 @@
     </row>
     <row r="68" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A68" s="11" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="B68" s="45" t="s">
         <v>826</v>
@@ -20706,7 +20706,7 @@
     </row>
     <row r="69" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A69" s="11" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="B69" s="45" t="s">
         <v>745</v>
@@ -20714,7 +20714,7 @@
     </row>
     <row r="70" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A70" s="11" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="B70" s="45" t="s">
         <v>745</v>
@@ -20722,7 +20722,7 @@
     </row>
     <row r="71" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A71" s="11" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="B71" s="45" t="s">
         <v>745</v>
@@ -20730,7 +20730,7 @@
     </row>
     <row r="72" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A72" s="11" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="B72" s="45" t="s">
         <v>745</v>
@@ -20738,7 +20738,7 @@
     </row>
     <row r="73" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A73" s="11" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="B73" s="45" t="s">
         <v>745</v>
@@ -20746,7 +20746,7 @@
     </row>
     <row r="74" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A74" s="11" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="B74" s="45" t="s">
         <v>745</v>
@@ -20754,7 +20754,7 @@
     </row>
     <row r="75" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A75" s="11" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="B75" s="45" t="s">
         <v>745</v>
@@ -20762,7 +20762,7 @@
     </row>
     <row r="76" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A76" s="11" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="B76" s="45" t="s">
         <v>745</v>
@@ -20770,7 +20770,7 @@
     </row>
     <row r="77" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A77" s="11" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="B77" s="45" t="s">
         <v>745</v>
@@ -20778,31 +20778,31 @@
     </row>
     <row r="78" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A78" s="11" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="B78" s="45" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="119" x14ac:dyDescent="0.2">
       <c r="A79" s="11" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="B79" s="45" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A80" s="11" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="B80" s="45" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A81" s="11" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="B81" s="45" t="s">
         <v>826</v>
@@ -20810,7 +20810,7 @@
     </row>
     <row r="82" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A82" s="11" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="B82" s="45" t="s">
         <v>819</v>
@@ -20818,7 +20818,7 @@
     </row>
     <row r="83" spans="1:2" ht="119" x14ac:dyDescent="0.2">
       <c r="A83" s="11" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="B83" s="45" t="s">
         <v>820</v>
@@ -20826,15 +20826,15 @@
     </row>
     <row r="84" spans="1:2" ht="306" x14ac:dyDescent="0.2">
       <c r="A84" s="11" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
       <c r="B84" s="45" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A85" s="11" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="B85" s="45" t="s">
         <v>603</v>
@@ -20842,7 +20842,7 @@
     </row>
     <row r="86" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A86" s="11" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="B86" s="45" t="s">
         <v>764</v>
@@ -20908,18 +20908,18 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="B5" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="B6" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
     </row>
   </sheetData>
@@ -20949,7 +20949,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>1496</v>
+        <v>1494</v>
       </c>
       <c r="B1" s="33" t="s">
         <v>216</v>
@@ -20961,30 +20961,30 @@
         <v>233</v>
       </c>
       <c r="E1" s="33" t="s">
-        <v>1500</v>
+        <v>1498</v>
       </c>
       <c r="F1" s="33" t="s">
         <v>248</v>
       </c>
       <c r="G1" s="33" t="s">
-        <v>1501</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="B2" t="s">
+        <v>1500</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1501</v>
+      </c>
+      <c r="F2" t="s">
         <v>1502</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>1503</v>
-      </c>
-      <c r="F2" t="s">
-        <v>1504</v>
-      </c>
-      <c r="G2" t="s">
-        <v>1505</v>
       </c>
     </row>
   </sheetData>
@@ -21042,10 +21042,10 @@
         <v>121</v>
       </c>
       <c r="C2" t="s">
-        <v>1537</v>
+        <v>1535</v>
       </c>
       <c r="D2" t="s">
-        <v>1492</v>
+        <v>1490</v>
       </c>
       <c r="E2" t="s">
         <v>120</v>
@@ -21068,7 +21068,7 @@
         <v>257</v>
       </c>
       <c r="D3" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="E3" t="s">
         <v>258</v>
@@ -21091,10 +21091,10 @@
         <v>507</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>1540</v>
+        <v>1538</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>1541</v>
+        <v>1539</v>
       </c>
       <c r="F4" s="70" t="s">
         <v>71</v>
@@ -21128,7 +21128,7 @@
         <v>21</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>1539</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -21136,7 +21136,7 @@
         <v>190</v>
       </c>
       <c r="B2" t="s">
-        <v>1537</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -21176,21 +21176,21 @@
         <v>21</v>
       </c>
       <c r="B1" s="67" t="s">
-        <v>1539</v>
+        <v>1537</v>
       </c>
       <c r="C1" s="67" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
       <c r="B2" t="s">
-        <v>1537</v>
+        <v>1535</v>
       </c>
       <c r="C2" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -21222,169 +21222,169 @@
       <c r="A1" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="74" t="s">
+      <c r="B1" s="73" t="s">
         <v>113</v>
       </c>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="73" t="s">
         <v>115</v>
       </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="75" t="s">
+      <c r="B3" s="74" t="s">
         <v>519</v>
       </c>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="72" t="s">
+      <c r="B4" s="75" t="s">
         <v>117</v>
       </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="72" t="s">
+      <c r="B5" s="75" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="72" t="s">
+      <c r="B6" s="75" t="s">
         <v>123</v>
       </c>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>1543</v>
-      </c>
-      <c r="B7" s="72" t="s">
+        <v>1541</v>
+      </c>
+      <c r="B7" s="75" t="s">
         <v>412</v>
       </c>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="75"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="72" t="s">
+      <c r="B8" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="C8" s="72"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="72"/>
+      <c r="C8" s="75"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="75"/>
+      <c r="F8" s="75"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>512</v>
       </c>
-      <c r="B9" s="72" t="s">
+      <c r="B9" s="75" t="s">
         <v>513</v>
       </c>
-      <c r="C9" s="72"/>
-      <c r="D9" s="72"/>
-      <c r="E9" s="72"/>
-      <c r="F9" s="72"/>
+      <c r="C9" s="75"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="75"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
         <v>514</v>
       </c>
-      <c r="B10" s="72" t="s">
+      <c r="B10" s="75" t="s">
         <v>515</v>
       </c>
-      <c r="C10" s="72"/>
-      <c r="D10" s="72"/>
-      <c r="E10" s="72"/>
-      <c r="F10" s="72"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="75"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="B11" s="72" t="s">
+      <c r="B11" s="75" t="s">
         <v>72</v>
       </c>
-      <c r="C11" s="72"/>
-      <c r="D11" s="72"/>
-      <c r="E11" s="72"/>
-      <c r="F11" s="72"/>
+      <c r="C11" s="75"/>
+      <c r="D11" s="75"/>
+      <c r="E11" s="75"/>
+      <c r="F11" s="75"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="B12" s="73" t="s">
+      <c r="B12" s="76" t="s">
         <v>430</v>
       </c>
-      <c r="C12" s="73"/>
-      <c r="D12" s="73"/>
-      <c r="E12" s="73"/>
-      <c r="F12" s="73"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="76"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="72" t="s">
+      <c r="B13" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="72"/>
-      <c r="D13" s="72"/>
-      <c r="E13" s="72"/>
-      <c r="F13" s="72"/>
+      <c r="C13" s="75"/>
+      <c r="D13" s="75"/>
+      <c r="E13" s="75"/>
+      <c r="F13" s="75"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="72" t="s">
+      <c r="B14" s="75" t="s">
         <v>116</v>
       </c>
-      <c r="C14" s="72"/>
-      <c r="D14" s="72"/>
-      <c r="E14" s="72"/>
-      <c r="F14" s="72"/>
+      <c r="C14" s="75"/>
+      <c r="D14" s="75"/>
+      <c r="E14" s="75"/>
+      <c r="F14" s="75"/>
       <c r="H14" s="12"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -21476,11 +21476,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B13:F13"/>
     <mergeCell ref="B14:F14"/>
     <mergeCell ref="B5:F5"/>
     <mergeCell ref="B6:F6"/>
@@ -21490,6 +21485,11 @@
     <mergeCell ref="B10:F10"/>
     <mergeCell ref="B11:F11"/>
     <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B13:F13"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21516,7 +21516,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>1539</v>
+        <v>1537</v>
       </c>
       <c r="B1" s="16" t="s">
         <v>216</v>
@@ -21528,7 +21528,7 @@
         <v>233</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -21545,7 +21545,7 @@
         <v>511</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>1507</v>
+        <v>1505</v>
       </c>
     </row>
   </sheetData>
@@ -21563,17 +21563,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="98eacbea-7562-4a40-a7f2-e999cdc0cec5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="75bf9804-c18d-470a-a27f-eeaf4abcd247" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D47D794EB48E7144959FE534A5ED3D9A" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e2a26abefe6b107b571df4f2e43af2ce">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="98eacbea-7562-4a40-a7f2-e999cdc0cec5" xmlns:ns3="75bf9804-c18d-470a-a27f-eeaf4abcd247" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5806404ce956f9af473b927dc8d5ee33" ns2:_="" ns3:_="">
     <xsd:import namespace="98eacbea-7562-4a40-a7f2-e999cdc0cec5"/>
@@ -21774,6 +21763,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="98eacbea-7562-4a40-a7f2-e999cdc0cec5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="75bf9804-c18d-470a-a27f-eeaf4abcd247" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0D2739C-381D-470B-B6E1-B86FD5C25B2E}">
   <ds:schemaRefs>
@@ -21783,23 +21783,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5AE94761-8578-4804-B593-FBFFCD1EC013}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="98eacbea-7562-4a40-a7f2-e999cdc0cec5"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="75bf9804-c18d-470a-a27f-eeaf4abcd247"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{028E3775-7751-44E5-835D-F091B807F690}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -21816,4 +21799,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5AE94761-8578-4804-B593-FBFFCD1EC013}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="98eacbea-7562-4a40-a7f2-e999cdc0cec5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="75bf9804-c18d-470a-a27f-eeaf4abcd247"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>